--- a/testCase/sqsrmyyadmin/updateDepartmentCategory.xlsx
+++ b/testCase/sqsrmyyadmin/updateDepartmentCategory.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="120" yWindow="45" windowWidth="20355" windowHeight="7725"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="updateDepartmentCategory" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -983,7 +983,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
